--- a/public/projects/CERTIFICACION MO-211/Adventure Works Cycles.xlsx
+++ b/public/projects/CERTIFICACION MO-211/Adventure Works Cycles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T Irvin Pineda\Desktop\CERTI MO-211\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T Irvin Pineda\Desktop\mo211-simulator (2)\mo211-simulator\public\projects\CERTIFICACION MO-211\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8618926C-9FC6-4F12-87AF-DF0CF489FF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A4A7D3-28E3-4A91-80CB-E44648155B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work Sites" sheetId="1" r:id="rId1"/>
@@ -1532,18 +1532,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyBorder="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1590,6 +1583,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -1599,52 +1625,51 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -1740,46 +1765,62 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="5"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1787,9 +1828,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color theme="5"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1811,7 +1849,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC2A3CCB-59FC-4A64-B2EA-DC63CC2A836F}" name="Table1" displayName="Table1" ref="A3:F10" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC2A3CCB-59FC-4A64-B2EA-DC63CC2A836F}" name="Table1" displayName="Table1" ref="A3:F10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A3:F10" xr:uid="{BC2A3CCB-59FC-4A64-B2EA-DC63CC2A836F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1821,13 +1859,13 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{657A7DD5-45B7-4E26-8D11-A26DC635BBBD}" name="Location"/>
-    <tableColumn id="2" xr3:uid="{C950951A-8179-4E7B-9540-81514BEC40EC}" name="Quarter 1" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{E7703A4D-92AD-4236-9F76-BFDCD3396215}" name="Quarter 2" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{3A109FA3-17E3-4D0B-969F-E97EA915CFE0}" name="Quarter 3" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{3B43FED2-F438-43D5-85C6-F71BBC05D4C6}" name="Quarter 4" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{6976E075-60B3-4CAB-BFB4-89CE445DE887}" name="Total Units" dataDxfId="11">
-      <calculatedColumnFormula>SUM(B4:D4)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{657A7DD5-45B7-4E26-8D11-A26DC635BBBD}" name="Location" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C950951A-8179-4E7B-9540-81514BEC40EC}" name="Quarter 1" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E7703A4D-92AD-4236-9F76-BFDCD3396215}" name="Quarter 2" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3A109FA3-17E3-4D0B-969F-E97EA915CFE0}" name="Quarter 3" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{3B43FED2-F438-43D5-85C6-F71BBC05D4C6}" name="Quarter 4" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6976E075-60B3-4CAB-BFB4-89CE445DE887}" name="Total Units" dataDxfId="2">
+      <calculatedColumnFormula>SUM(B4:E4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -1852,8 +1890,8 @@
     <tableColumn id="2" xr3:uid="{70BA3C6F-55CE-4E8F-9BBE-0AD0EF7E782C}" name="Color"/>
     <tableColumn id="3" xr3:uid="{40F8DAAE-F960-4604-9F18-BC407556CA7D}" name="In Stock"/>
     <tableColumn id="4" xr3:uid="{E091CB96-F1B6-4204-97A0-09ABFB04E41F}" name="Reorder Point"/>
-    <tableColumn id="5" xr3:uid="{B5D038D2-3E47-4F41-AA5E-D000784CF094}" name="Cost" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{4601D3D1-1D45-402B-9947-84772F6A7FBD}" name="List Price" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B5D038D2-3E47-4F41-AA5E-D000784CF094}" name="Cost" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{4601D3D1-1D45-402B-9947-84772F6A7FBD}" name="List Price" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{ED680A5C-D152-4335-B35B-4EB5F07506C7}" name="Size"/>
     <tableColumn id="8" xr3:uid="{343DB10B-9F78-4698-92A9-01C166D8FFE1}" name="Weight"/>
     <tableColumn id="9" xr3:uid="{834EC97B-2424-4422-AB3E-6955E44F2162}" name="Days to Build" totalsRowFunction="sum"/>
@@ -1863,7 +1901,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C02C90D1-005E-4FA9-B136-D94BE888A5A7}" name="Table3" displayName="Table3" ref="A3:E21" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1" headerRowCellStyle="Linked Cell">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C02C90D1-005E-4FA9-B136-D94BE888A5A7}" name="Table3" displayName="Table3" ref="A3:E21" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" headerRowCellStyle="Linked Cell">
   <autoFilter ref="A3:E21" xr:uid="{C02C90D1-005E-4FA9-B136-D94BE888A5A7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1872,11 +1910,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{33E64D1F-C7DF-4206-A88B-C2F8BA7E39A2}" name="Order" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{243828E9-3BE1-43B1-B9C3-7A683B9641A4}" name="Part Number" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{6CDACA55-6E41-46AE-9C59-A276E647B93F}" name="Quantity" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{22F549AC-B15B-47CA-AD33-4EE67931C936}" name="Order Date" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5C2DC8E2-9D2B-43C8-8866-0B0491A0020F}" name="Due Date" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{33E64D1F-C7DF-4206-A88B-C2F8BA7E39A2}" name="Order" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{243828E9-3BE1-43B1-B9C3-7A683B9641A4}" name="Part Number" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{6CDACA55-6E41-46AE-9C59-A276E647B93F}" name="Quantity" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{22F549AC-B15B-47CA-AD33-4EE67931C936}" name="Order Date" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{5C2DC8E2-9D2B-43C8-8866-0B0491A0020F}" name="Due Date" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2147,199 +2185,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="27" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="31">
         <v>960</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="32">
         <v>1003</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="33">
         <v>1169</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="33">
         <v>1224</v>
       </c>
-      <c r="F4" s="9">
-        <f>SUM(B4:D4)</f>
-        <v>3132</v>
+      <c r="F4" s="34">
+        <f t="shared" ref="F4:F10" si="0">SUM(B4:E4)</f>
+        <v>4356</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="36">
         <v>1080</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="36">
         <v>1265</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="36">
         <v>1461</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="36">
         <v>1687</v>
       </c>
-      <c r="F5" s="9">
-        <f>SUM(B5:D5)</f>
-        <v>3806</v>
+      <c r="F5" s="34">
+        <f t="shared" si="0"/>
+        <v>5493</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="36">
         <v>1200</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="36">
         <v>1438</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="36">
         <v>1576</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="36">
         <v>1674</v>
       </c>
-      <c r="F6" s="9">
-        <f>SUM(B6:D6)</f>
-        <v>4214</v>
+      <c r="F6" s="34">
+        <f t="shared" si="0"/>
+        <v>5888</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="36">
         <v>1200</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="36">
         <v>1302</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="36">
         <v>1410</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="36">
         <v>1464</v>
       </c>
-      <c r="F7" s="9">
-        <f>SUM(B7:D7)</f>
-        <v>3912</v>
+      <c r="F7" s="34">
+        <f t="shared" si="0"/>
+        <v>5376</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="35">
         <v>800</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="35">
         <v>917</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="35">
         <v>967</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="36">
         <v>1021</v>
       </c>
-      <c r="F8" s="9">
-        <f>SUM(B8:D8)</f>
-        <v>2684</v>
+      <c r="F8" s="34">
+        <f t="shared" si="0"/>
+        <v>3705</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="36">
         <v>1200</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="36">
         <v>1266</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="36">
         <v>1447</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="36">
         <v>1468</v>
       </c>
-      <c r="F9" s="9">
-        <f>SUM(B9:D9)</f>
-        <v>3913</v>
+      <c r="F9" s="34">
+        <f t="shared" si="0"/>
+        <v>5381</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="36">
         <v>1200</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="36">
         <v>1251</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="36">
         <v>1340</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="36">
         <v>1555</v>
       </c>
-      <c r="F10" s="9">
-        <f>SUM(B10:D10)</f>
-        <v>3791</v>
+      <c r="F10" s="34">
+        <f t="shared" si="0"/>
+        <v>5346</v>
       </c>
     </row>
   </sheetData>
@@ -2370,181 +2409,181 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="5">
         <v>2022</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="5">
         <v>2026</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="5">
         <v>2027</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="5">
         <v>2028</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="5">
         <v>2029</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="5">
         <v>2030</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="6">
         <v>4356</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="6">
         <v>5009</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="6">
         <v>5761</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="6">
         <v>6625</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="6">
         <v>7619</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="6">
         <v>8761</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="7">
         <v>5493</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="7">
         <v>5823</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="7">
         <v>6172</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="7">
         <v>6542</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="7">
         <v>6935</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="7">
         <v>7351</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="7">
         <v>5888</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="7">
         <v>6182</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="7">
         <v>6492</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="7">
         <v>6816</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="7">
         <v>7157</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="7">
         <v>7515</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="7">
         <v>5376</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="7">
         <v>5591</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="7">
         <v>5815</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="7">
         <v>6047</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="7">
         <v>6289</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="7">
         <v>6541</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="7">
         <v>3705</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="7">
         <v>5381</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="7">
         <v>5650</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="7">
         <v>5933</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="7">
         <v>6229</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="7">
         <v>6541</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="7">
         <v>6868</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="7">
         <v>5346</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="7">
         <v>5774</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="7">
         <v>6236</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="7">
         <v>6734</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="7">
         <v>7273</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="7">
         <v>7855</v>
       </c>
     </row>
@@ -2584,7 +2623,7 @@
       <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2616,7 +2655,7 @@
       <c r="I3" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="18"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2631,10 +2670,10 @@
       <c r="D4">
         <v>375</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="8">
         <v>204.63</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="8">
         <v>337.22</v>
       </c>
       <c r="G4">
@@ -2660,10 +2699,10 @@
       <c r="D5">
         <v>375</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="8">
         <v>204.63</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="8">
         <v>337.22</v>
       </c>
       <c r="G5">
@@ -2689,10 +2728,10 @@
       <c r="D6">
         <v>375</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="8">
         <v>204.63</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="8">
         <v>337.22</v>
       </c>
       <c r="G6">
@@ -2718,10 +2757,10 @@
       <c r="D7">
         <v>75</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="8">
         <v>13.09</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="8">
         <v>35</v>
       </c>
       <c r="I7">
@@ -2738,10 +2777,10 @@
       <c r="D8">
         <v>75</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="8">
         <v>13.09</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="8">
         <v>35</v>
       </c>
       <c r="I8">
@@ -2761,10 +2800,10 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="8">
         <v>38.49</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="8">
         <v>49.99</v>
       </c>
       <c r="G9" t="s">
@@ -2787,10 +2826,10 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="8">
         <v>38.49</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="8">
         <v>49.99</v>
       </c>
       <c r="G10" t="s">
@@ -2813,10 +2852,10 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="8">
         <v>38.49</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="8">
         <v>49.99</v>
       </c>
       <c r="G11" t="s">
@@ -2839,10 +2878,10 @@
       <c r="D12">
         <v>375</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="8">
         <v>17.98</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="8">
         <v>40.49</v>
       </c>
       <c r="H12">
@@ -2865,10 +2904,10 @@
       <c r="D13">
         <v>375</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="8">
         <v>27.57</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="8">
         <v>62.09</v>
       </c>
       <c r="H13">
@@ -2891,10 +2930,10 @@
       <c r="D14">
         <v>375</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="8">
         <v>35.96</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="8">
         <v>80.989999999999995</v>
       </c>
       <c r="H14">
@@ -9833,341 +9872,341 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="28" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="G2" s="21" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="G3" s="32" cm="1">
+      <c r="G3" s="25" cm="1">
         <f t="array" ref="G3">SUMIF(Quantity,"&lt;",DueDate)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="12">
         <v>15000</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="12">
         <v>4</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="14">
         <v>45302</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="14">
         <v>45316</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="15">
         <v>15001</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="15">
         <v>4</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="17">
         <v>45309</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="17">
         <v>45403</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="15">
         <v>15002</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="15">
         <v>4</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="17">
         <v>45333</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="17">
         <v>45402</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="15">
         <v>15003</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="15">
         <v>4</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="17">
         <v>45363</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="17">
         <v>45440</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="15">
         <v>15004</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="15">
         <v>4</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="17">
         <v>45353</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="17">
         <v>45406</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="15">
         <v>15005</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="15">
         <v>4</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="17">
         <v>45372</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="17">
         <v>45413</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="15">
         <v>15006</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="15">
         <v>4</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="17">
         <v>45366</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="17">
         <v>45466</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="15">
         <v>15007</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="15">
         <v>4</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="17">
         <v>45360</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="17">
         <v>45379</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="15">
         <v>15008</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="15">
         <v>40</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="17">
         <v>45388</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="17">
         <v>45417</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="15">
         <v>15009</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="15">
         <v>8</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="17">
         <v>45361</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="17">
         <v>45427</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="15">
         <v>15010</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="15">
         <v>4</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="17">
         <v>45385</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="17">
         <v>45454</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="15">
         <v>15011</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="15">
         <v>8</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="17">
         <v>45399</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="17">
         <v>45465</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="15">
         <v>15012</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="15">
         <v>4</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="17">
         <v>45353</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="17">
         <v>45359</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="15">
         <v>15013</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="15">
         <v>4</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="17">
         <v>45317</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="17">
         <v>45399</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="15">
         <v>15014</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="15">
         <v>8</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="17">
         <v>45335</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="17">
         <v>45405</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="15">
         <v>15015</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="15">
         <v>4</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="17">
         <v>45320</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="17">
         <v>45337</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="15">
         <v>15016</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="15">
         <v>16</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="17">
         <v>45328</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="17">
         <v>45400</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="18">
         <v>15017</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="18">
         <v>4</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="20">
         <v>45361</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="20">
         <v>45447</v>
       </c>
     </row>
@@ -10183,8 +10222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEC09CB-6119-48FF-89C3-053AD6D3EA03}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A3:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10203,33 +10242,33 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -10238,18 +10277,18 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="9">
         <v>22.5</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="7">
         <v>50</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="7">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
@@ -10258,18 +10297,18 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="9">
         <v>25</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="7">
         <v>80</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="7">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -10278,18 +10317,18 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="9">
         <v>14.5</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="7">
         <v>100</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -10298,18 +10337,18 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="9">
         <v>15.75</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="7">
         <v>125</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
@@ -10318,18 +10357,18 @@
       <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="9">
         <v>18</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="7">
         <v>65</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="7">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -10338,18 +10377,18 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="9">
         <v>12.25</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="7">
         <v>150</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
@@ -10358,13 +10397,13 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="9">
         <v>12.25</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="7">
         <v>200</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="7">
         <v>120</v>
       </c>
     </row>
@@ -10397,27 +10436,27 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
